--- a/docs/modeloRelacionalAlohandesIt3.xlsx
+++ b/docs/modeloRelacionalAlohandesIt3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOT A MAC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOT A MAC\Desktop\proyecto\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC48E00-495D-4CCC-AEB1-6D6DCCCE0021}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACFD56C-6D5D-45B8-A567-3E2FF4F0898A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>class to relation</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t xml:space="preserve"> IDRESERVACOLECTIVA NUMBER</t>
+  </si>
+  <si>
+    <t>NUMERO_SEMANA</t>
+  </si>
+  <si>
+    <t>CK &lt;0</t>
   </si>
 </sst>
 </file>
@@ -795,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:L60"/>
+    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1089,9 @@
       <c r="H19" s="16" t="s">
         <v>80</v>
       </c>
+      <c r="I19" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1113,6 +1122,9 @@
       </c>
       <c r="H20" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
